--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H2">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I2">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J2">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N2">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q2">
-        <v>2.787479561496667</v>
+        <v>59.77341801009601</v>
       </c>
       <c r="R2">
-        <v>25.08731605347001</v>
+        <v>537.960762090864</v>
       </c>
       <c r="S2">
-        <v>0.009732185302106674</v>
+        <v>0.1565383745817289</v>
       </c>
       <c r="T2">
-        <v>0.009732185302106672</v>
+        <v>0.1565383745817289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H3">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I3">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J3">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P3">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q3">
-        <v>8.246328147874667</v>
+        <v>171.7239200285938</v>
       </c>
       <c r="R3">
-        <v>74.21695333087202</v>
+        <v>1545.515280257344</v>
       </c>
       <c r="S3">
-        <v>0.02879116844681135</v>
+        <v>0.4497213680090785</v>
       </c>
       <c r="T3">
-        <v>0.02879116844681134</v>
+        <v>0.4497213680090785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H4">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I4">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J4">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N4">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O4">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P4">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q4">
-        <v>0.7339555035193335</v>
+        <v>17.87732926168534</v>
       </c>
       <c r="R4">
-        <v>6.605599531674001</v>
+        <v>160.895963355168</v>
       </c>
       <c r="S4">
-        <v>0.002562526758013576</v>
+        <v>0.04681827069039158</v>
       </c>
       <c r="T4">
-        <v>0.002562526758013576</v>
+        <v>0.04681827069039157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H5">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I5">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J5">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N5">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q5">
-        <v>1.732026314267334</v>
+        <v>18.04849028376356</v>
       </c>
       <c r="R5">
-        <v>15.588236828406</v>
+        <v>162.436412553872</v>
       </c>
       <c r="S5">
-        <v>0.006047183725187178</v>
+        <v>0.04726651790595731</v>
       </c>
       <c r="T5">
-        <v>0.006047183725187176</v>
+        <v>0.04726651790595731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H6">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I6">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J6">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N6">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q6">
-        <v>0.211044747386</v>
+        <v>4.329763080072889</v>
       </c>
       <c r="R6">
-        <v>1.899402726474</v>
+        <v>38.967867720656</v>
       </c>
       <c r="S6">
-        <v>0.0007368400532752394</v>
+        <v>0.01133905500876846</v>
       </c>
       <c r="T6">
-        <v>0.0007368400532752394</v>
+        <v>0.01133905500876846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H7">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I7">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J7">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N7">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O7">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P7">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q7">
-        <v>0.9626422507306668</v>
+        <v>16.28956668334223</v>
       </c>
       <c r="R7">
-        <v>8.663780256576</v>
+        <v>146.60610015008</v>
       </c>
       <c r="S7">
-        <v>0.003360961957589257</v>
+        <v>0.04266013850538678</v>
       </c>
       <c r="T7">
-        <v>0.003360961957589256</v>
+        <v>0.04266013850538678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.336249</v>
       </c>
       <c r="I8">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J8">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N8">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q8">
-        <v>5.655234255714999</v>
+        <v>5.823402617529</v>
       </c>
       <c r="R8">
-        <v>50.897108301435</v>
+        <v>52.41062355776101</v>
       </c>
       <c r="S8">
-        <v>0.01974464260246936</v>
+        <v>0.01525069187325048</v>
       </c>
       <c r="T8">
-        <v>0.01974464260246935</v>
+        <v>0.01525069187325048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.336249</v>
       </c>
       <c r="I9">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J9">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P9">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q9">
         <v>16.730137888684</v>
@@ -1013,10 +1013,10 @@
         <v>150.571240998156</v>
       </c>
       <c r="S9">
-        <v>0.05841147835180747</v>
+        <v>0.04381393399956558</v>
       </c>
       <c r="T9">
-        <v>0.05841147835180745</v>
+        <v>0.04381393399956558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.336249</v>
       </c>
       <c r="I10">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J10">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N10">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O10">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P10">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q10">
-        <v>1.489047798953</v>
+        <v>1.741692034398</v>
       </c>
       <c r="R10">
-        <v>13.401430190577</v>
+        <v>15.675228309582</v>
       </c>
       <c r="S10">
-        <v>0.005198850353300431</v>
+        <v>0.00456125229513489</v>
       </c>
       <c r="T10">
-        <v>0.005198850353300429</v>
+        <v>0.00456125229513489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.336249</v>
       </c>
       <c r="I11">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J11">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N11">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q11">
-        <v>3.513932327806999</v>
+        <v>1.758367332167</v>
       </c>
       <c r="R11">
-        <v>31.62539095026299</v>
+        <v>15.825305989503</v>
       </c>
       <c r="S11">
-        <v>0.01226851705951841</v>
+        <v>0.004604922610390824</v>
       </c>
       <c r="T11">
-        <v>0.01226851705951841</v>
+        <v>0.004604922610390824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.336249</v>
       </c>
       <c r="I12">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J12">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N12">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q12">
-        <v>0.4281672595529999</v>
+        <v>0.4218255286909999</v>
       </c>
       <c r="R12">
-        <v>3.853505335977</v>
+        <v>3.796429758218999</v>
       </c>
       <c r="S12">
-        <v>0.001494899969070134</v>
+        <v>0.001104703140904783</v>
       </c>
       <c r="T12">
-        <v>0.001494899969070134</v>
+        <v>0.001104703140904783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.336249</v>
       </c>
       <c r="I13">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J13">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N13">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O13">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P13">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q13">
-        <v>1.953007120672</v>
+        <v>1.58700486638</v>
       </c>
       <c r="R13">
-        <v>17.577064086048</v>
+        <v>14.28304379742</v>
       </c>
       <c r="S13">
-        <v>0.00681871446063926</v>
+        <v>0.00415614784141102</v>
       </c>
       <c r="T13">
-        <v>0.006818714460639258</v>
+        <v>0.00415614784141102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H14">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I14">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J14">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N14">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q14">
-        <v>2.76033435634</v>
+        <v>2.129838989859</v>
       </c>
       <c r="R14">
-        <v>24.84300920706</v>
+        <v>19.168550908731</v>
       </c>
       <c r="S14">
-        <v>0.009637410735757372</v>
+        <v>0.005577755876985422</v>
       </c>
       <c r="T14">
-        <v>0.009637410735757369</v>
+        <v>0.005577755876985422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H15">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I15">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J15">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P15">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q15">
-        <v>8.166023247184</v>
+        <v>6.118845342030667</v>
       </c>
       <c r="R15">
-        <v>73.494209224656</v>
+        <v>55.069608078276</v>
       </c>
       <c r="S15">
-        <v>0.02851079251689091</v>
+        <v>0.01602441580296915</v>
       </c>
       <c r="T15">
-        <v>0.0285107925168909</v>
+        <v>0.01602441580296915</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H16">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I16">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J16">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N16">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O16">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P16">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q16">
-        <v>0.726808052828</v>
+        <v>0.6370027708580001</v>
       </c>
       <c r="R16">
-        <v>6.541272475452</v>
+        <v>5.733024937722001</v>
       </c>
       <c r="S16">
-        <v>0.002537572202103441</v>
+        <v>0.001668222793237731</v>
       </c>
       <c r="T16">
-        <v>0.00253757220210344</v>
+        <v>0.001668222793237731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H17">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I17">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J17">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N17">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q17">
-        <v>1.715159388932</v>
+        <v>0.6431015590903334</v>
       </c>
       <c r="R17">
-        <v>15.436434500388</v>
+        <v>5.787914031813</v>
       </c>
       <c r="S17">
-        <v>0.005988294668166747</v>
+        <v>0.001684194682224343</v>
       </c>
       <c r="T17">
-        <v>0.005988294668166743</v>
+        <v>0.001684194682224343</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H18">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I18">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J18">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N18">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q18">
-        <v>0.208989538428</v>
+        <v>0.1542775790943333</v>
       </c>
       <c r="R18">
-        <v>1.880905845852</v>
+        <v>1.388498211849</v>
       </c>
       <c r="S18">
-        <v>0.0007296645120838032</v>
+        <v>0.000404031796571378</v>
       </c>
       <c r="T18">
-        <v>0.000729664512083803</v>
+        <v>0.000404031796571378</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H19">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I19">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J19">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N19">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O19">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P19">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q19">
-        <v>0.9532677886719999</v>
+        <v>0.5804278123133334</v>
       </c>
       <c r="R19">
-        <v>8.579410098047999</v>
+        <v>5.223850310820001</v>
       </c>
       <c r="S19">
-        <v>0.003328232030840115</v>
+        <v>0.001520060744831615</v>
       </c>
       <c r="T19">
-        <v>0.003328232030840114</v>
+        <v>0.001520060744831615</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H20">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I20">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J20">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N20">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q20">
-        <v>43.20711050453722</v>
+        <v>11.512308047772</v>
       </c>
       <c r="R20">
-        <v>388.8639945408351</v>
+        <v>103.610772429948</v>
       </c>
       <c r="S20">
-        <v>0.1508529826037466</v>
+        <v>0.03014915408012972</v>
       </c>
       <c r="T20">
-        <v>0.1508529826037466</v>
+        <v>0.03014915408012972</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H21">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I21">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J21">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P21">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q21">
-        <v>127.8215691563995</v>
+        <v>33.07387685620089</v>
       </c>
       <c r="R21">
-        <v>1150.394122407596</v>
+        <v>297.664891705808</v>
       </c>
       <c r="S21">
-        <v>0.4462752709721027</v>
+        <v>0.08661594227908254</v>
       </c>
       <c r="T21">
-        <v>0.4462752709721026</v>
+        <v>0.08661594227908254</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H22">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I22">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J22">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N22">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O22">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P22">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q22">
-        <v>11.37662029311744</v>
+        <v>3.443157985330667</v>
       </c>
       <c r="R22">
-        <v>102.389582638057</v>
+        <v>30.988421867976</v>
       </c>
       <c r="S22">
-        <v>0.03972024704097852</v>
+        <v>0.009017158000914816</v>
       </c>
       <c r="T22">
-        <v>0.03972024704097851</v>
+        <v>0.009017158000914814</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H23">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I23">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J23">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N23">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q23">
-        <v>26.84713939826477</v>
+        <v>3.476123448533778</v>
       </c>
       <c r="R23">
-        <v>241.624254584383</v>
+        <v>31.285111036804</v>
       </c>
       <c r="S23">
-        <v>0.09373390178872307</v>
+        <v>0.009103490022722186</v>
       </c>
       <c r="T23">
-        <v>0.09373390178872303</v>
+        <v>0.009103490022722186</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>26</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H24">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I24">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J24">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N24">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q24">
-        <v>3.271282719939666</v>
+        <v>0.8339085836324442</v>
       </c>
       <c r="R24">
-        <v>29.441544479457</v>
+        <v>7.505177252691999</v>
       </c>
       <c r="S24">
-        <v>0.01142133203263325</v>
+        <v>0.002183892080749439</v>
       </c>
       <c r="T24">
-        <v>0.01142133203263325</v>
+        <v>0.002183892080749439</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H25">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I25">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J25">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N25">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O25">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P25">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q25">
-        <v>14.92136146150755</v>
+        <v>3.137356300951111</v>
       </c>
       <c r="R25">
-        <v>134.292253153568</v>
+        <v>28.23620670856</v>
       </c>
       <c r="S25">
-        <v>0.05209632985618516</v>
+        <v>0.008216305377612513</v>
       </c>
       <c r="T25">
-        <v>0.05209632985618515</v>
+        <v>0.008216305377612513</v>
       </c>
     </row>
   </sheetData>
